--- a/output.xlsx
+++ b/output.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,135 +455,265 @@
       <c r="A3" s="1" t="n">
         <v>27616905734</v>
       </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>65935139317</v>
       </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>85391200239</v>
       </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>796019799720</v>
       </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>65935222781</v>
       </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>12569766426</v>
       </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>794043457722</v>
       </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>43396036635</v>
       </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>43396051492</v>
       </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>678149439229</v>
       </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>85391108627</v>
       </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>57373177891</v>
       </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>25192181818</v>
       </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>85393893927</v>
       </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>65935221814</v>
       </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>26359336522</v>
+        <v>25192099915</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>794043528422</v>
       </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>85391138877</v>
+        <v>26359336522</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>779836166395</v>
+        <v>85391138877</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>786936197372</v>
+        <v>85392864829</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>97361300542</v>
+        <v>779836166395</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>97363532866</v>
+        <v>786936197372</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>794043130113</v>
+        <v>97361300542</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25192632426</v>
+        <v>97363532866</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>97360804942</v>
+        <v>794043130113</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>25192879227</v>
+        <v>25192632426</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>85391198307</v>
+        <v>97360804942</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
@@ -593,17 +723,27 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>24543656067</v>
+        <v>25192879227</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>786936787238</v>
+        <v>85391198307</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>24543407249</v>
+        <v>24543656067</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
@@ -613,272 +753,592 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>43396190856</v>
+        <v>786936787238</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>96009155193</v>
+        <v>24543407249</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>43396185746</v>
+        <v>43396190856</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>25192472220</v>
+        <v>96009155193</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>24543496861</v>
+        <v>43396185746</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>18713811110</v>
+        <v>25192472220</v>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>24543602859</v>
+        <v>24543496861</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>883929107742</v>
+        <v>18713811110</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>794043541322</v>
+        <v>24543602859</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>25192671920</v>
+        <v>883929107742</v>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>43396080300</v>
+        <v>794043541322</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>85391448228</v>
+        <v>25192671920</v>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>27616857804</v>
+        <v>43396080300</v>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>25192870620</v>
+        <v>85391448228</v>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>24543028963</v>
+        <v>794043135330</v>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>24543665892</v>
+        <v>27616857804</v>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>12569818378</v>
+        <v>25192870620</v>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>65935823605</v>
+        <v>24543028963</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>96009999094</v>
+        <v>24543665892</v>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>97361186047</v>
+        <v>786936239492</v>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>12569722675</v>
+        <v>12569818378</v>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>883904138143</v>
+        <v>65935823605</v>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>31398163251</v>
+        <v>96009999094</v>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>786936758757</v>
+        <v>97361186047</v>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>27616625991</v>
+        <v>12569722675</v>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>31398126409</v>
+        <v>883904138143</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>43396067660</v>
+        <v>43396142374</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>786936242164</v>
+        <v>31398163251</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43396154193</v>
+        <v>786936758757</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>27616626523</v>
+        <v>27616625991</v>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43396060500</v>
+        <v>31398126409</v>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>786936165371</v>
+        <v>43396067660</v>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>678149059120</v>
+        <v>786936242164</v>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>x4</t>
+          <t>x2</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>24543101802</v>
+        <v>43396154193</v>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>24543156079</v>
+        <v>27616626523</v>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>667068998221</v>
+        <v>43396060500</v>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43396261747</v>
+        <v>786936165371</v>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>12569593220</v>
+        <v>678149059120</v>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>85391139683</v>
+        <v>24543101802</v>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>65935203711</v>
+        <v>24543156079</v>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>774212000324</v>
+        <v>667068998221</v>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>25192050091</v>
+        <v>25192245626</v>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>786936156232</v>
+        <v>43396261747</v>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>11891850179</v>
+        <v>12569593220</v>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>85393894825</v>
+        <v>85391139683</v>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>97361244068</v>
+        <v>65935203711</v>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>24543563723</v>
+        <v>774212000324</v>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>65935200703</v>
+        <v>25192050091</v>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>24543853015</v>
+        <v>786936156232</v>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>32429308900</v>
+        <v>11891850179</v>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>812034011774</v>
+        <v>85393894825</v>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>12569701366</v>
+        <v>97361244068</v>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
+        <v>24543563723</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>24543563724</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>65935200703</v>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>24543853015</v>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>32429308900</v>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>812034011774</v>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>12569701366</v>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
         <v>774212005015</v>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
       </c>
     </row>
   </sheetData>
